--- a/resources/input/test.xlsx
+++ b/resources/input/test.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t xml:space="preserve">https://brasil.blogabet.com/</t>
+    <t xml:space="preserve">https://guidouille.blogabet.com</t>
   </si>
   <si>
     <t xml:space="preserve">https://m2picks.blogabet.com/</t>
@@ -356,10 +356,10 @@
   <dimension ref="A1:A347"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1408,7 +1408,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="https://brasil.blogabet.com/"/>
+    <hyperlink ref="A1" r:id="rId1" display="https://guidouille.blogabet.com"/>
     <hyperlink ref="A2" r:id="rId2" display="https://m2picks.blogabet.com/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
